--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.99310527635546</v>
+        <v>71.10345454401291</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.71696923120335</v>
+        <v>97.28688337010666</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.01345497477394</v>
+        <v>88.00195976428614</v>
       </c>
       <c r="AD2" t="n">
-        <v>58993.10527635546</v>
+        <v>71103.4545440129</v>
       </c>
       <c r="AE2" t="n">
-        <v>80716.96923120334</v>
+        <v>97286.88337010666</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.578614313625803e-06</v>
+        <v>1.402242067078907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73013.45497477394</v>
+        <v>88001.95976428615</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.21692894150727</v>
+        <v>49.41252955518798</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.92184407264642</v>
+        <v>67.60840286433795</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.06193474370455</v>
+        <v>61.15595178396955</v>
       </c>
       <c r="AD3" t="n">
-        <v>37216.92894150727</v>
+        <v>49412.52955518798</v>
       </c>
       <c r="AE3" t="n">
-        <v>50921.84407264642</v>
+        <v>67608.40286433794</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.882047728656566e-06</v>
+        <v>1.828437556070095e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.5380859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>46061.93474370456</v>
+        <v>61155.95178396955</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.35106696092706</v>
+        <v>49.11477909364687</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.10537762856745</v>
+        <v>67.20100754703429</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.22795211463999</v>
+        <v>60.78743770396633</v>
       </c>
       <c r="AD2" t="n">
-        <v>37351.06696092706</v>
+        <v>49114.77909364687</v>
       </c>
       <c r="AE2" t="n">
-        <v>51105.37762856745</v>
+        <v>67201.0075470343</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551954765023997e-06</v>
+        <v>1.820749995822619e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.6455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>46227.95211463999</v>
+        <v>60787.43770396632</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.57752193837746</v>
+        <v>47.34123407109698</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.67873508544256</v>
+        <v>64.77436500389851</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.03290493000952</v>
+        <v>58.59239051933244</v>
       </c>
       <c r="AD3" t="n">
-        <v>35577.52193837746</v>
+        <v>47341.23407109698</v>
       </c>
       <c r="AE3" t="n">
-        <v>48678.73508544256</v>
+        <v>64774.36500389851</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.019492680505357e-05</v>
+        <v>1.943310389793975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.541341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>44032.90493000952</v>
+        <v>58592.39051933244</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.46684107948163</v>
+        <v>43.93028357067448</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.7908084176476</v>
+        <v>60.10735204870709</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.42059793014979</v>
+        <v>54.37079073038918</v>
       </c>
       <c r="AD2" t="n">
-        <v>33466.84107948162</v>
+        <v>43930.28357067448</v>
       </c>
       <c r="AE2" t="n">
-        <v>45790.8084176476</v>
+        <v>60107.35204870709</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.724820962516579e-06</v>
+        <v>2.071132363597918e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.803385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>41420.59793014979</v>
+        <v>54370.79073038918</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.88394851046431</v>
+        <v>44.85574455666669</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.3615132061965</v>
+        <v>61.37360859819817</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.93683545467047</v>
+        <v>55.51619753199946</v>
       </c>
       <c r="AD2" t="n">
-        <v>33883.94851046431</v>
+        <v>44855.74455666669</v>
       </c>
       <c r="AE2" t="n">
-        <v>46361.5132061965</v>
+        <v>61373.60859819817</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.013765531284298e-05</v>
+        <v>2.058294519349391e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.6552734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>41936.83545467047</v>
+        <v>55516.19753199946</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.97264929963664</v>
+        <v>53.93388625060942</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.16531870811714</v>
+        <v>73.79472256319009</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.42322513318187</v>
+        <v>66.75185781331945</v>
       </c>
       <c r="AD2" t="n">
-        <v>43972.64929963664</v>
+        <v>53933.88625060942</v>
       </c>
       <c r="AE2" t="n">
-        <v>60165.31870811714</v>
+        <v>73794.72256319009</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.033983719234939e-06</v>
+        <v>2.011691718852892e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.0166015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>54423.22513318187</v>
+        <v>66751.85781331945</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.16290110409171</v>
+        <v>51.0401314316864</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.58440903571437</v>
+        <v>69.83535955648904</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.47038824363862</v>
+        <v>63.1703708549758</v>
       </c>
       <c r="AD2" t="n">
-        <v>39162.90110409171</v>
+        <v>51040.1314316864</v>
       </c>
       <c r="AE2" t="n">
-        <v>53584.40903571437</v>
+        <v>69835.35955648904</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.074471236663557e-06</v>
+        <v>1.715768052624632e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.717122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>48470.38824363862</v>
+        <v>63170.3708549758</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.03369997980354</v>
+        <v>47.91093030739773</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.30289800687353</v>
+        <v>65.55384852762896</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.59749861823914</v>
+        <v>59.29748122957029</v>
       </c>
       <c r="AD3" t="n">
-        <v>36033.69997980354</v>
+        <v>47910.93030739774</v>
       </c>
       <c r="AE3" t="n">
-        <v>49302.89800687353</v>
+        <v>65553.84852762896</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010305935435043e-05</v>
+        <v>1.910249756914581e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.541341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>44597.49861823914</v>
+        <v>59297.48122957029</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.32553336638301</v>
+        <v>54.03987100516107</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.64815025638558</v>
+        <v>73.93973558008497</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.85997591614206</v>
+        <v>66.88303099140897</v>
       </c>
       <c r="AD2" t="n">
-        <v>44325.53336638301</v>
+        <v>54039.87100516108</v>
       </c>
       <c r="AE2" t="n">
-        <v>60648.15025638558</v>
+        <v>73939.73558008498</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.474512750807783e-06</v>
+        <v>1.942838613956601e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.200520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54859.97591614206</v>
+        <v>66883.03099140897</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.91285610214496</v>
+        <v>46.30814676880414</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.76930996532648</v>
+        <v>63.36084938030702</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.21027406696845</v>
+        <v>57.31377884297442</v>
       </c>
       <c r="AD2" t="n">
-        <v>34912.85610214496</v>
+        <v>46308.14676880414</v>
       </c>
       <c r="AE2" t="n">
-        <v>47769.30996532648</v>
+        <v>63360.84938030702</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012030972969853e-05</v>
+        <v>1.983566720819477e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.599934895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>43210.27406696844</v>
+        <v>57313.77884297443</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.77954538863671</v>
+        <v>46.17483605529587</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.58690836585177</v>
+        <v>63.17844778083148</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.04528062014479</v>
+        <v>57.14878539615053</v>
       </c>
       <c r="AD3" t="n">
-        <v>34779.54538863671</v>
+        <v>46174.83605529587</v>
       </c>
       <c r="AE3" t="n">
-        <v>47586.90836585177</v>
+        <v>63178.44778083148</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020360241238411e-05</v>
+        <v>1.999891971515911e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.5869140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>43045.2806201448</v>
+        <v>57148.78539615053</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.26485514447644</v>
+        <v>47.9107324104834</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.61917470102358</v>
+        <v>65.55357775634016</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.88359030859759</v>
+        <v>59.29723630031328</v>
       </c>
       <c r="AD2" t="n">
-        <v>36264.85514447644</v>
+        <v>47910.7324104834</v>
       </c>
       <c r="AE2" t="n">
-        <v>49619.17470102358</v>
+        <v>65553.57775634016</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.832229469812638e-06</v>
+        <v>1.890445789704639e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>44883.59030859759</v>
+        <v>59297.23630031328</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.54993555018152</v>
+        <v>47.19581281618838</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.64099017208751</v>
+        <v>64.57539322739969</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.99876233820965</v>
+        <v>58.41240832992396</v>
       </c>
       <c r="AD3" t="n">
-        <v>35549.93555018152</v>
+        <v>47195.81281618838</v>
       </c>
       <c r="AE3" t="n">
-        <v>48640.99017208751</v>
+        <v>64575.39322739969</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01083587226737e-05</v>
+        <v>1.943537246234226e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.570638020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>43998.76233820965</v>
+        <v>58412.40832992396</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.80428248665595</v>
+        <v>55.89713792602533</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.93495180677752</v>
+        <v>76.48093011804391</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.21484412558406</v>
+        <v>69.18169748925486</v>
       </c>
       <c r="AD2" t="n">
-        <v>43804.28248665595</v>
+        <v>55897.13792602533</v>
       </c>
       <c r="AE2" t="n">
-        <v>59934.95180677752</v>
+        <v>76480.93011804392</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.080020533437901e-06</v>
+        <v>1.505246541312959e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.896158854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54214.84412558406</v>
+        <v>69181.69748925486</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.96752201401664</v>
+        <v>49.06037745338867</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.5805945113983</v>
+        <v>67.12657282280213</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.75325356163417</v>
+        <v>60.72010692534504</v>
       </c>
       <c r="AD3" t="n">
-        <v>36967.52201401664</v>
+        <v>49060.37745338868</v>
       </c>
       <c r="AE3" t="n">
-        <v>50580.5945113983</v>
+        <v>67126.57282280213</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.909753911937693e-06</v>
+        <v>1.846111991854064e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.546223958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>45753.25356163418</v>
+        <v>60720.10692534504</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.12735480840374</v>
+        <v>45.24783829751485</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.6945524413636</v>
+        <v>61.91008855238137</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.23808989265773</v>
+        <v>56.00147659230995</v>
       </c>
       <c r="AD2" t="n">
-        <v>34127.35480840375</v>
+        <v>45247.83829751485</v>
       </c>
       <c r="AE2" t="n">
-        <v>46694.5524413636</v>
+        <v>61910.08855238138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01891587555658e-05</v>
+        <v>2.042414177484359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.6259765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>42238.08989265773</v>
+        <v>56001.47659230995</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.50956716674274</v>
+        <v>44.15481617361676</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.84926813517991</v>
+        <v>60.4145674617319</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.47347833428972</v>
+        <v>54.64868593557454</v>
       </c>
       <c r="AD2" t="n">
-        <v>33509.56716674274</v>
+        <v>44154.81617361676</v>
       </c>
       <c r="AE2" t="n">
-        <v>45849.26813517991</v>
+        <v>60414.5674617319</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.927956660194289e-06</v>
+        <v>2.076990620685542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.73828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>41473.47833428971</v>
+        <v>54648.68593557454</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.44154627902606</v>
+        <v>43.70693148192202</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.75619895573662</v>
+        <v>59.80175186727741</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.3892915467088</v>
+        <v>54.09435660136251</v>
       </c>
       <c r="AD2" t="n">
-        <v>33441.54627902606</v>
+        <v>43706.93148192202</v>
       </c>
       <c r="AE2" t="n">
-        <v>45756.19895573663</v>
+        <v>59801.75186727741</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.47493248870763e-06</v>
+        <v>2.059713665958095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.884765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>41389.2915467088</v>
+        <v>54094.35660136251</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.77949726154929</v>
+        <v>55.37721545716135</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.63752780211104</v>
+        <v>75.76954925878408</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.65949006101305</v>
+        <v>68.53820982077326</v>
       </c>
       <c r="AD2" t="n">
-        <v>45779.49726154929</v>
+        <v>55377.21545716135</v>
       </c>
       <c r="AE2" t="n">
-        <v>62637.52780211104</v>
+        <v>75769.54925878409</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.523083794882417e-06</v>
+        <v>1.789385765497126e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.547200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56659.49006101304</v>
+        <v>68538.20982077326</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.37462849536994</v>
+        <v>46.89788479652577</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.40112732569405</v>
+        <v>64.16775496724091</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.78179166522564</v>
+        <v>58.04367449319071</v>
       </c>
       <c r="AD2" t="n">
-        <v>35374.62849536994</v>
+        <v>46897.88479652577</v>
       </c>
       <c r="AE2" t="n">
-        <v>48401.12732569405</v>
+        <v>64167.75496724091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006578876850243e-05</v>
+        <v>1.953345019951466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.591796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>43781.79166522564</v>
+        <v>58043.67449319072</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.05356682399013</v>
+        <v>46.57682312514591</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.96183658267304</v>
+        <v>63.72846422421793</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.38442621416883</v>
+        <v>57.64630904213328</v>
       </c>
       <c r="AD3" t="n">
-        <v>35053.56682399013</v>
+        <v>46576.82312514591</v>
       </c>
       <c r="AE3" t="n">
-        <v>47961.83658267304</v>
+        <v>63728.46422421793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020956464877454e-05</v>
+        <v>1.981245853773597e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.570638020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>43384.42621416882</v>
+        <v>57646.30904213327</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.4498843715312</v>
+        <v>53.43671507565887</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.71356043679091</v>
+        <v>73.11447102797887</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.30089782679731</v>
+        <v>66.13652852988953</v>
       </c>
       <c r="AD2" t="n">
-        <v>41449.8843715312</v>
+        <v>53436.71507565887</v>
       </c>
       <c r="AE2" t="n">
-        <v>56713.56043679091</v>
+        <v>73114.47102797887</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552715907910209e-06</v>
+        <v>1.604824966853672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.806640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>51300.89782679731</v>
+        <v>66136.52852988953</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.5618805300632</v>
+        <v>48.54871123419011</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.02557793741662</v>
+        <v>66.42648852857452</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.251206990501</v>
+        <v>60.08683769358383</v>
       </c>
       <c r="AD3" t="n">
-        <v>36561.8805300632</v>
+        <v>48548.71123419011</v>
       </c>
       <c r="AE3" t="n">
-        <v>50025.57793741662</v>
+        <v>66426.48852857453</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.983166373867944e-06</v>
+        <v>1.873233580717869e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.5478515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>45251.20699050101</v>
+        <v>60086.83769358383</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.54223696808394</v>
+        <v>67.70251943986827</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.10007132092062</v>
+        <v>92.63357392195071</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.45543293522674</v>
+        <v>83.79275563889989</v>
       </c>
       <c r="AD2" t="n">
-        <v>58542.23696808394</v>
+        <v>67702.51943986827</v>
       </c>
       <c r="AE2" t="n">
-        <v>80100.07132092062</v>
+        <v>92633.57392195071</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050404365585186e-06</v>
+        <v>1.513160215597486e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.279622395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72455.43293522674</v>
+        <v>83792.75563889989</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.66254631238849</v>
+        <v>44.4764932867334</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.05858095121499</v>
+        <v>60.85470027929051</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.66281462893542</v>
+        <v>55.0468130947558</v>
       </c>
       <c r="AD2" t="n">
-        <v>33662.54631238848</v>
+        <v>44476.4932867334</v>
       </c>
       <c r="AE2" t="n">
-        <v>46058.58095121499</v>
+        <v>60854.70027929051</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.005832366457317e-05</v>
+        <v>2.071293953886408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.691080729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>41662.81462893542</v>
+        <v>55046.81309475579</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.47160624025018</v>
+        <v>45.73291356902586</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.16557243771494</v>
+        <v>62.57378993887305</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.66415640163941</v>
+        <v>56.60183524998581</v>
       </c>
       <c r="AD2" t="n">
-        <v>34471.60624025018</v>
+        <v>45732.91356902586</v>
       </c>
       <c r="AE2" t="n">
-        <v>47165.57243771495</v>
+        <v>62573.78993887305</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017957554214291e-05</v>
+        <v>2.016761332878659e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.608072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>42664.15640163941</v>
+        <v>56601.83524998581</v>
       </c>
     </row>
   </sheetData>
